--- a/datos/datosExcel/paginaDos.xlsx
+++ b/datos/datosExcel/paginaDos.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sistemas\Desktop\complementario-3125033\datos\datosExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MOMY\Documents\complementario-3125033\datos\datosExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3634AD6A-FA67-4EC4-9D19-67A9F8ECA4A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19344" windowHeight="8880"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="78">
   <si>
     <t>Amazon</t>
   </si>
@@ -75,19 +76,222 @@
   </si>
   <si>
     <t>USD 31.84B</t>
+  </si>
+  <si>
+    <t>Expedia</t>
+  </si>
+  <si>
+    <t>Harley Davidson</t>
+  </si>
+  <si>
+    <t>Hasbro</t>
+  </si>
+  <si>
+    <t>Lyft</t>
+  </si>
+  <si>
+    <t>Match</t>
+  </si>
+  <si>
+    <t>Mattel</t>
+  </si>
+  <si>
+    <t>Meta</t>
+  </si>
+  <si>
+    <t>Microsoft</t>
+  </si>
+  <si>
+    <t>Netflix</t>
+  </si>
+  <si>
+    <t>Snap</t>
+  </si>
+  <si>
+    <t>Sony</t>
+  </si>
+  <si>
+    <t>Take Two Interactive Software</t>
+  </si>
+  <si>
+    <t>TripAdvisor</t>
+  </si>
+  <si>
+    <t>Uber</t>
+  </si>
+  <si>
+    <t>Walt Disney</t>
+  </si>
+  <si>
+    <t>Warner Bros Discovery</t>
+  </si>
+  <si>
+    <t>Yelp</t>
+  </si>
+  <si>
+    <t>USD 19.27B</t>
+  </si>
+  <si>
+    <t>USD 5.07B</t>
+  </si>
+  <si>
+    <t>USD 10.08B</t>
+  </si>
+  <si>
+    <t>USD 5.23B</t>
+  </si>
+  <si>
+    <t>USD 9.76B</t>
+  </si>
+  <si>
+    <t>USD 6.48B</t>
+  </si>
+  <si>
+    <t>USD 1.45T</t>
+  </si>
+  <si>
+    <t>USD 3.2T</t>
+  </si>
+  <si>
+    <t>USD 304.39B</t>
+  </si>
+  <si>
+    <t>USD 17.89B</t>
+  </si>
+  <si>
+    <t>JPY 17.34T</t>
+  </si>
+  <si>
+    <t>USD 103.58B</t>
+  </si>
+  <si>
+    <t>USD 26.94B</t>
+  </si>
+  <si>
+    <t>USD 2.01B</t>
+  </si>
+  <si>
+    <t>USD 157.91B</t>
+  </si>
+  <si>
+    <t>USD 174.45B</t>
+  </si>
+  <si>
+    <t>USD 20.23B</t>
+  </si>
+  <si>
+    <t>USD 2.35B</t>
+  </si>
+  <si>
+    <t>54.36B</t>
+  </si>
+  <si>
+    <t>324M</t>
+  </si>
+  <si>
+    <t>6.81B</t>
+  </si>
+  <si>
+    <t>631M</t>
+  </si>
+  <si>
+    <t>757M</t>
+  </si>
+  <si>
+    <t>113M</t>
+  </si>
+  <si>
+    <t>4.87B</t>
+  </si>
+  <si>
+    <t>2.58B</t>
+  </si>
+  <si>
+    <t>561M</t>
+  </si>
+  <si>
+    <t>1.94B</t>
+  </si>
+  <si>
+    <t>460M</t>
+  </si>
+  <si>
+    <t>1.69B</t>
+  </si>
+  <si>
+    <t>885M</t>
+  </si>
+  <si>
+    <t>168.17B</t>
+  </si>
+  <si>
+    <t>120.96B</t>
+  </si>
+  <si>
+    <t>13.58B</t>
+  </si>
+  <si>
+    <t>9.37B</t>
+  </si>
+  <si>
+    <t>690.2B</t>
+  </si>
+  <si>
+    <t>1.45B</t>
+  </si>
+  <si>
+    <t>267M</t>
+  </si>
+  <si>
+    <t>471M</t>
+  </si>
+  <si>
+    <t>6.04B</t>
+  </si>
+  <si>
+    <t>6.56B</t>
+  </si>
+  <si>
+    <t>2B</t>
+  </si>
+  <si>
+    <t>143M</t>
+  </si>
+  <si>
+    <t>2024-09</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212529"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -107,13 +311,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -391,20 +599,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -415,60 +623,354 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
